--- a/data/outputs/OR_elsevier/22.xlsx
+++ b/data/outputs/OR_elsevier/22.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS44"/>
+  <dimension ref="A1:BU44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -919,6 +929,12 @@
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1140,6 +1156,12 @@
           <t>2-s2.0-84947444924</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1357,6 +1379,12 @@
           <t>2-s2.0-84947444041</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1566,6 +1594,12 @@
           <t>2-s2.0-84947416886</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1785,6 +1819,12 @@
           <t>2-s2.0-84947434949</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2009,6 +2049,12 @@
         <is>
           <t>2-s2.0-84937916401</t>
         </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2215,6 +2261,12 @@
           <t>2-s2.0-84940780130</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2423,6 +2475,12 @@
         <is>
           <t>2-s2.0-84938929083</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2617,6 +2675,12 @@
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2834,6 +2898,12 @@
           <t>2-s2.0-84930517331</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3062,6 +3132,12 @@
         <is>
           <t>2-s2.0-84930520290</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -3276,6 +3352,12 @@
           <t>2-s2.0-84930511021</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3485,6 +3567,12 @@
           <t>2-s2.0-84930517280</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3692,6 +3780,12 @@
           <t>2-s2.0-84961368267</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3906,6 +4000,12 @@
         <is>
           <t>2-s2.0-84961332494</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -4114,6 +4214,12 @@
           <t>2-s2.0-84926062010</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4329,6 +4435,12 @@
           <t>2-s2.0-84961314830</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4543,6 +4655,12 @@
         <is>
           <t>2-s2.0-84946240844</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -4751,6 +4869,12 @@
           <t>2-s2.0-84926015784</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4964,6 +5088,12 @@
           <t>2-s2.0-84928010705</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5174,6 +5304,12 @@
         <is>
           <t>2-s2.0-84928042419</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -5382,6 +5518,12 @@
           <t>2-s2.0-84919346986</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5591,6 +5733,12 @@
           <t>2-s2.0-84938943863</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5806,6 +5954,12 @@
           <t>2-s2.0-84938936015</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6014,6 +6168,12 @@
         <is>
           <t>2-s2.0-84938930456</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -6220,6 +6380,12 @@
           <t>2-s2.0-84938929757</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6433,6 +6599,12 @@
           <t>2-s2.0-84940743263</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6649,6 +6821,12 @@
         <is>
           <t>2-s2.0-84940785082</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -6855,6 +7033,12 @@
           <t>2-s2.0-84940728870</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7071,6 +7255,12 @@
         <is>
           <t>2-s2.0-84947418840</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -7281,6 +7471,12 @@
           <t>2-s2.0-84947439558</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7500,6 +7696,12 @@
           <t>2-s2.0-84928012206</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7719,6 +7921,12 @@
           <t>2-s2.0-84928012356</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7930,6 +8138,12 @@
           <t>2-s2.0-84928015563</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8141,6 +8355,12 @@
           <t>2-s2.0-84928007859</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8366,6 +8586,12 @@
           <t>2-s2.0-84930514033</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8579,6 +8805,12 @@
           <t>2-s2.0-84930519673</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8794,6 +9026,12 @@
           <t>2-s2.0-84919397363</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9013,6 +9251,12 @@
           <t>2-s2.0-84919341607</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9228,6 +9472,12 @@
           <t>2-s2.0-84919382047</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9451,6 +9701,12 @@
           <t>2-s2.0-84961291086</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9661,6 +9917,12 @@
         <is>
           <t>2-s2.0-84961372965</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -9869,6 +10131,12 @@
           <t>2-s2.0-84926071215</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
